--- a/needyPacket42/needyPacket42.xlsx
+++ b/needyPacket42/needyPacket42.xlsx
@@ -1727,21 +1727,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -2213,7 +2202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2320,66 +2309,65 @@
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="37" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2609,7 +2597,7 @@
     <col customWidth="1" min="23" max="23" width="2.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -2634,7 +2622,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2665,7 +2653,7 @@
       <c r="V2" s="4"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2732,7 +2720,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -2799,7 +2787,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="13">
         <v>1.0</v>
@@ -2866,7 +2854,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="18">
         <v>2.0</v>
@@ -2933,7 +2921,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="18">
         <v>3.0</v>
@@ -3000,7 +2988,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="18">
         <v>4.0</v>
@@ -3067,7 +3055,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="18">
         <v>5.0</v>
@@ -3134,7 +3122,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="18">
         <v>6.0</v>
@@ -3201,7 +3189,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18">
         <v>7.0</v>
@@ -3268,7 +3256,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="18">
         <v>8.0</v>
@@ -3335,7 +3323,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="18">
         <v>9.0</v>
@@ -3402,7 +3390,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="18">
         <v>10.0</v>
@@ -3469,7 +3457,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="18">
         <v>11.0</v>
@@ -3536,7 +3524,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="18">
         <v>12.0</v>
@@ -3603,7 +3591,7 @@
       </c>
       <c r="W16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="18">
         <v>13.0</v>
@@ -3670,7 +3658,7 @@
       </c>
       <c r="W17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="18">
         <v>14.0</v>
@@ -3737,7 +3725,7 @@
       </c>
       <c r="W18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="18">
         <v>15.0</v>
@@ -3804,7 +3792,7 @@
       </c>
       <c r="W19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="18">
         <v>16.0</v>
@@ -3871,7 +3859,7 @@
       </c>
       <c r="W20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="18">
         <v>17.0</v>
@@ -3938,7 +3926,7 @@
       </c>
       <c r="W21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="18">
         <v>18.0</v>
@@ -4005,7 +3993,7 @@
       </c>
       <c r="W22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="18">
         <v>19.0</v>
@@ -4072,7 +4060,7 @@
       </c>
       <c r="W23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="18">
         <v>20.0</v>
@@ -4139,7 +4127,7 @@
       </c>
       <c r="W24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="18">
         <v>21.0</v>
@@ -4206,7 +4194,7 @@
       </c>
       <c r="W25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="18">
         <v>22.0</v>
@@ -4273,7 +4261,7 @@
       </c>
       <c r="W26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="18">
         <v>23.0</v>
@@ -4340,7 +4328,7 @@
       </c>
       <c r="W27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="18">
         <v>24.0</v>
@@ -4407,7 +4395,7 @@
       </c>
       <c r="W28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="18">
         <v>25.0</v>
@@ -4474,7 +4462,7 @@
       </c>
       <c r="W29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="23">
         <v>26.0</v>
@@ -4541,7 +4529,7 @@
       </c>
       <c r="W30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="28" t="s">
         <v>497</v>
@@ -4608,7 +4596,7 @@
       </c>
       <c r="W31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="33" t="s">
         <v>516</v>
@@ -4675,439 +4663,454 @@
       </c>
       <c r="W32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="36"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1"/>
       <c r="B34" s="37" t="s">
         <v>523</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="37" t="s">
         <v>524</v>
       </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="41" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="41" t="s">
+      <c r="L35" s="39"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="40" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="36"/>
-      <c r="B36" s="42" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="42" t="s">
+      <c r="L36" s="39"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="Q36" s="43" t="s">
+      <c r="Q36" s="42" t="s">
         <v>4</v>
       </c>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
-      <c r="W36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="36"/>
-      <c r="B37" s="44" t="s">
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1"/>
+      <c r="B37" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="44" t="s">
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="Q37" s="45" t="s">
+      <c r="Q37" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="R37" s="43" t="s">
+      <c r="R37" s="42" t="s">
         <v>5</v>
       </c>
       <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="36"/>
-      <c r="B38" s="44" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="44" t="s">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="Q38" s="46" t="s">
+      <c r="Q38" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="R38" s="45" t="s">
+      <c r="R38" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="S38" s="43" t="s">
+      <c r="S38" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="36"/>
-      <c r="B39" s="44" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="44" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="Q39" s="46" t="s">
+      <c r="Q39" s="45" t="s">
         <v>537</v>
       </c>
-      <c r="R39" s="47" t="s">
+      <c r="R39" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="S39" s="45" t="s">
+      <c r="S39" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="T39" s="43" t="s">
+      <c r="T39" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="36"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="36"/>
-      <c r="B40" s="44" t="s">
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>543</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>544</v>
       </c>
-      <c r="G40" s="43" t="s">
+      <c r="G40" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="44" t="s">
+      <c r="H40" s="39"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="Q40" s="46" t="s">
+      <c r="Q40" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="R40" s="47" t="s">
+      <c r="R40" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="S40" s="49" t="s">
+      <c r="S40" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="49" t="s">
+      <c r="T40" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="U40" s="43" t="s">
+      <c r="U40" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="40"/>
-      <c r="W40" s="36"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="36"/>
-      <c r="B41" s="44" t="s">
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="45" t="s">
         <v>550</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="48" t="s">
         <v>553</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="48"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="44" t="s">
+      <c r="I41" s="47"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="Q41" s="46" t="s">
+      <c r="Q41" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="R41" s="47" t="s">
+      <c r="R41" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="S41" s="49" t="s">
+      <c r="S41" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="T41" s="49" t="s">
+      <c r="T41" s="48" t="s">
         <v>557</v>
       </c>
-      <c r="U41" s="49" t="s">
+      <c r="U41" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="V41" s="43" t="s">
+      <c r="V41" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="W41" s="36"/>
+      <c r="W41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="36"/>
-      <c r="B42" s="50" t="s">
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="49" t="s">
         <v>559</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="51" t="s">
         <v>561</v>
       </c>
-      <c r="E42" s="53" t="s">
+      <c r="E42" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="G42" s="53" t="s">
+      <c r="G42" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="54" t="s">
+      <c r="H42" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="50" t="s">
+      <c r="I42" s="47"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="Q42" s="51" t="s">
+      <c r="Q42" s="50" t="s">
         <v>565</v>
       </c>
-      <c r="R42" s="52" t="s">
+      <c r="R42" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="S42" s="53" t="s">
+      <c r="S42" s="52" t="s">
         <v>566</v>
       </c>
-      <c r="T42" s="48" t="s">
+      <c r="T42" s="47" t="s">
         <v>567</v>
       </c>
-      <c r="U42" s="53" t="s">
+      <c r="U42" s="52" t="s">
         <v>568</v>
       </c>
-      <c r="V42" s="54" t="s">
+      <c r="V42" s="53" t="s">
         <v>569</v>
       </c>
-      <c r="W42" s="36"/>
+      <c r="W42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="36"/>
-      <c r="B43" s="55" t="s">
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="56" t="s">
+      <c r="E43" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="39"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="55" t="s">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="55" t="s">
         <v>517</v>
       </c>
-      <c r="R43" s="56" t="s">
+      <c r="R43" s="55" t="s">
         <v>518</v>
       </c>
-      <c r="S43" s="56" t="s">
+      <c r="S43" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="T43" s="56" t="s">
+      <c r="T43" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="U43" s="56" t="s">
+      <c r="U43" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="V43" s="57" t="s">
+      <c r="V43" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="W43" s="36"/>
+      <c r="W43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>

--- a/needyPacket42/needyPacket42.xlsx
+++ b/needyPacket42/needyPacket42.xlsx
@@ -2202,123 +2202,124 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -2328,9 +2329,6 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
@@ -2360,9 +2358,6 @@
     </xf>
     <xf borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -4702,7 +4697,7 @@
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
       <c r="O34" s="36"/>
@@ -4719,7 +4714,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="38"/>
@@ -4731,11 +4726,11 @@
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
       <c r="O35" s="36"/>
-      <c r="P35" s="40" t="s">
+      <c r="P35" s="39" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="38"/>
@@ -4748,10 +4743,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="38"/>
@@ -4762,14 +4757,14 @@
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
       <c r="O36" s="36"/>
-      <c r="P36" s="41" t="s">
+      <c r="P36" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="Q36" s="42" t="s">
+      <c r="Q36" s="41" t="s">
         <v>4</v>
       </c>
       <c r="R36" s="38"/>
@@ -4781,13 +4776,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="38"/>
@@ -4796,18 +4791,18 @@
       <c r="H37" s="36"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
-      <c r="P37" s="43" t="s">
+      <c r="P37" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="R37" s="42" t="s">
+      <c r="R37" s="41" t="s">
         <v>5</v>
       </c>
       <c r="S37" s="38"/>
@@ -4818,38 +4813,38 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="42" t="s">
         <v>530</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
       <c r="O38" s="36"/>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="Q38" s="45" t="s">
+      <c r="Q38" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="R38" s="44" t="s">
+      <c r="R38" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="S38" s="42" t="s">
+      <c r="S38" s="41" t="s">
         <v>6</v>
       </c>
       <c r="T38" s="36"/>
@@ -4859,225 +4854,225 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="F39" s="42" t="s">
+      <c r="F39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="47"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
-      <c r="P39" s="43" t="s">
+      <c r="P39" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="Q39" s="45" t="s">
+      <c r="Q39" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="R39" s="46" t="s">
+      <c r="R39" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="S39" s="44" t="s">
+      <c r="S39" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="T39" s="42" t="s">
+      <c r="T39" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="47"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
       <c r="O40" s="36"/>
-      <c r="P40" s="43" t="s">
+      <c r="P40" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="Q40" s="45" t="s">
+      <c r="Q40" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="R40" s="46" t="s">
+      <c r="R40" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="S40" s="48" t="s">
+      <c r="S40" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="48" t="s">
+      <c r="T40" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="U40" s="42" t="s">
+      <c r="U40" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="39"/>
+      <c r="V40" s="38"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="48" t="s">
+      <c r="G41" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="47"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
-      <c r="P41" s="43" t="s">
+      <c r="P41" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="Q41" s="45" t="s">
+      <c r="Q41" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="R41" s="46" t="s">
+      <c r="R41" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="S41" s="48" t="s">
+      <c r="S41" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="T41" s="48" t="s">
+      <c r="T41" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="U41" s="48" t="s">
+      <c r="U41" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="V41" s="42" t="s">
+      <c r="V41" s="41" t="s">
         <v>9</v>
       </c>
       <c r="W41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="47" t="s">
         <v>559</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="45" t="s">
         <v>562</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="51" t="s">
         <v>563</v>
       </c>
-      <c r="I42" s="47"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
-      <c r="P42" s="49" t="s">
+      <c r="P42" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="Q42" s="50" t="s">
+      <c r="Q42" s="48" t="s">
         <v>565</v>
       </c>
-      <c r="R42" s="51" t="s">
+      <c r="R42" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="S42" s="52" t="s">
+      <c r="S42" s="50" t="s">
         <v>566</v>
       </c>
-      <c r="T42" s="47" t="s">
+      <c r="T42" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="U42" s="52" t="s">
+      <c r="U42" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="V42" s="53" t="s">
+      <c r="V42" s="51" t="s">
         <v>569</v>
       </c>
       <c r="W42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="52" t="s">
         <v>521</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="53" t="s">
         <v>522</v>
       </c>
       <c r="I43" s="36"/>
@@ -5087,25 +5082,25 @@
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
-      <c r="P43" s="54" t="s">
+      <c r="P43" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="Q43" s="55" t="s">
+      <c r="Q43" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="R43" s="55" t="s">
+      <c r="R43" s="52" t="s">
         <v>518</v>
       </c>
-      <c r="S43" s="55" t="s">
+      <c r="S43" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="T43" s="55" t="s">
+      <c r="T43" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="U43" s="55" t="s">
+      <c r="U43" s="52" t="s">
         <v>521</v>
       </c>
-      <c r="V43" s="56" t="s">
+      <c r="V43" s="53" t="s">
         <v>522</v>
       </c>
       <c r="W43" s="1"/>
